--- a/RESULTS/2018/B2 SET 6 [2.8..5.6] VIP=5/Cov Fit .xlsx
+++ b/RESULTS/2018/B2 SET 6 [2.8..5.6] VIP=5/Cov Fit .xlsx
@@ -388,43 +388,43 @@
         <v>15</v>
       </c>
       <c r="D1" s="1" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="n">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="F1" s="1" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H1" s="1" t="n">
         <v>33</v>
       </c>
       <c r="I1" s="1" t="n">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="J1" s="1" t="n">
-        <v>136</v>
+        <v>204</v>
       </c>
       <c r="K1" s="1" t="n">
         <v>14</v>
       </c>
       <c r="L1" s="1" t="n">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="M1" s="1" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N1" s="1" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="O1" s="1" t="n">
-        <v>101</v>
+        <v>153</v>
       </c>
       <c r="P1" s="1" t="n">
-        <v>134</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -438,43 +438,43 @@
         <v>0.9647147743635599</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8087074476349245</v>
+        <v>0.9223955340867501</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8867373991806939</v>
+        <v>0.9900777641223389</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8659503811327621</v>
+        <v>0.9145461311393663</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7746182614176115</v>
+        <v>0.8239910963466709</v>
       </c>
       <c r="H2" t="n">
         <v>0.7839818249638393</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3874617546197744</v>
+        <v>0.7746182614176115</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5312350828188904</v>
+        <v>0.2921896458955796</v>
       </c>
       <c r="K2" t="n">
         <v>0.5681088836017403</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7274507043148952</v>
+        <v>0.8243439133698794</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6243486396460526</v>
+        <v>0.3874617546197744</v>
       </c>
       <c r="N2" t="n">
-        <v>0.8715607685519557</v>
+        <v>0.8659503811327621</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9615516482886011</v>
+        <v>0.6119721747145386</v>
       </c>
       <c r="P2" t="n">
-        <v>0.8028080899722625</v>
+        <v>0.86596432210421</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -488,243 +488,243 @@
         <v>0.9999999999999991</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8934056122583482</v>
+        <v>0.9876577486399527</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8648645937752387</v>
+        <v>0.9754018054026382</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9632363915993691</v>
+        <v>0.8333681331439882</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8737306524408875</v>
+        <v>0.9237895706773891</v>
       </c>
       <c r="H3" t="n">
         <v>0.6854042142631881</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2958259168869475</v>
+        <v>0.8737306524408875</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4443978803986556</v>
+        <v>0.219661056060752</v>
       </c>
       <c r="K3" t="n">
         <v>0.6590993355898472</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7590473033190204</v>
+        <v>0.877967046742961</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5206390095779966</v>
+        <v>0.2958259168869475</v>
       </c>
       <c r="N3" t="n">
-        <v>0.878896552082704</v>
+        <v>0.9632363915993691</v>
       </c>
       <c r="O3" t="n">
-        <v>0.9952540042678321</v>
+        <v>0.5358039909626182</v>
       </c>
       <c r="P3" t="n">
-        <v>0.7477066511407123</v>
+        <v>0.9464904151156773</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8087074476349245</v>
+        <v>0.9223955340867501</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8934056122583482</v>
+        <v>0.9876577486399527</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8556633960923489</v>
+        <v>0.950689136848395</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9199498609715863</v>
+        <v>0.7961611677877166</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9966101845865887</v>
+        <v>0.9709078713196022</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6155794301168758</v>
+        <v>0.6529193464844768</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2852879696520029</v>
+        <v>0.9329516451752203</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4460430096988122</v>
+        <v>0.2110556129150113</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9026970951277831</v>
+        <v>0.7370996181912122</v>
       </c>
       <c r="L4" t="n">
-        <v>0.8923553314327566</v>
+        <v>0.9177248837732551</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4786302488393721</v>
+        <v>0.2791043367584161</v>
       </c>
       <c r="N4" t="n">
-        <v>0.8921488563251552</v>
+        <v>0.9856406373406972</v>
       </c>
       <c r="O4" t="n">
-        <v>0.9186975996692778</v>
+        <v>0.5253859511008863</v>
       </c>
       <c r="P4" t="n">
-        <v>0.7432909135489647</v>
+        <v>0.9828122319745179</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="n">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8867373991806939</v>
+        <v>0.9900777641223389</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8648645937752387</v>
+        <v>0.9754018054026382</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8556633960923489</v>
+        <v>0.950689136848395</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.9999999999999989</v>
       </c>
       <c r="F5" t="n">
-        <v>0.778826355784451</v>
+        <v>0.9284088631256806</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8142464552518162</v>
+        <v>0.8739525185666119</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8948725444333477</v>
+        <v>0.8078512923453198</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5845828640396185</v>
+        <v>0.8344053308512436</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7500013960274294</v>
+        <v>0.3257077193287514</v>
       </c>
       <c r="K5" t="n">
-        <v>0.7035394533202185</v>
+        <v>0.6404660913421167</v>
       </c>
       <c r="L5" t="n">
-        <v>0.9274382791896623</v>
+        <v>0.8867908925769389</v>
       </c>
       <c r="M5" t="n">
-        <v>0.7887004349200695</v>
+        <v>0.4183480179348009</v>
       </c>
       <c r="N5" t="n">
-        <v>0.987979267606519</v>
+        <v>0.8946827082821999</v>
       </c>
       <c r="O5" t="n">
-        <v>0.8933340622073126</v>
+        <v>0.6594975549085689</v>
       </c>
       <c r="P5" t="n">
-        <v>0.9697056590022765</v>
+        <v>0.9128460877684059</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8659503811327621</v>
+        <v>0.9145461311393663</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9632363915993691</v>
+        <v>0.8333681331439882</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9199498609715863</v>
+        <v>0.7961611677877166</v>
       </c>
       <c r="E6" t="n">
-        <v>0.778826355784451</v>
+        <v>0.9284088631256806</v>
       </c>
       <c r="F6" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999986</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9188405370792183</v>
+        <v>0.7081352091913564</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5611891528086586</v>
+        <v>0.9646528335593058</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2129359758219215</v>
+        <v>0.6838665427032969</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3489095095941086</v>
+        <v>0.5675480697017317</v>
       </c>
       <c r="K6" t="n">
-        <v>0.7098623230043076</v>
+        <v>0.5366263770689889</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7267109827562065</v>
+        <v>0.802889290744116</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4078597798256571</v>
+        <v>0.6731407481616737</v>
       </c>
       <c r="N6" t="n">
-        <v>0.8112522023724603</v>
+        <v>0.7090385504210664</v>
       </c>
       <c r="O6" t="n">
-        <v>0.955627032479602</v>
+        <v>0.8539773277348565</v>
       </c>
       <c r="P6" t="n">
-        <v>0.6461570142564416</v>
+        <v>0.7645568493519578</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>0.7746182614176115</v>
+        <v>0.8239910963466709</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8737306524408875</v>
+        <v>0.9237895706773891</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9966101845865887</v>
+        <v>0.9709078713196022</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8142464552518162</v>
+        <v>0.8739525185666119</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9188405370792183</v>
+        <v>0.7081352091913564</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999982</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5651793414145034</v>
+        <v>0.5761736050262032</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2466427054947357</v>
+        <v>0.9889924604437622</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4006878099930446</v>
+        <v>0.1862306138250087</v>
       </c>
       <c r="K7" t="n">
-        <v>0.9125921764692132</v>
+        <v>0.8488934159174116</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8660565449162155</v>
+        <v>0.9452806436642047</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4304843041025677</v>
+        <v>0.2388990052197546</v>
       </c>
       <c r="N7" t="n">
-        <v>0.8562431537966352</v>
+        <v>0.9661145249305612</v>
       </c>
       <c r="O7" t="n">
-        <v>0.8968949036339405</v>
+        <v>0.4865032035005998</v>
       </c>
       <c r="P7" t="n">
-        <v>0.6957359349893749</v>
+        <v>0.9952179724305489</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -738,143 +738,143 @@
         <v>0.6854042142631881</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6155794301168758</v>
+        <v>0.6529193464844768</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8948725444333477</v>
+        <v>0.8078512923453198</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5611891528086586</v>
+        <v>0.9646528335593058</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5651793414145034</v>
+        <v>0.5761736050262032</v>
       </c>
       <c r="H8" t="n">
         <v>0.999999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8335477810461152</v>
+        <v>0.5651793414145035</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9222647467850525</v>
+        <v>0.7394217279623126</v>
       </c>
       <c r="K8" t="n">
         <v>0.4623502962374352</v>
       </c>
       <c r="L8" t="n">
-        <v>0.7338574581419918</v>
+        <v>0.7103592670357154</v>
       </c>
       <c r="M8" t="n">
-        <v>0.9687875471945941</v>
+        <v>0.8335477810461152</v>
       </c>
       <c r="N8" t="n">
-        <v>0.8196535774279831</v>
+        <v>0.5611891528086587</v>
       </c>
       <c r="O8" t="n">
-        <v>0.7067686301203365</v>
+        <v>0.94605616152012</v>
       </c>
       <c r="P8" t="n">
-        <v>0.9614526077731826</v>
+        <v>0.6343384066545052</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="1" t="n">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>0.3874617546197744</v>
+        <v>0.7746182614176115</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2958259168869475</v>
+        <v>0.8737306524408875</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2852879696520029</v>
+        <v>0.9329516451752203</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5845828640396185</v>
+        <v>0.8344053308512436</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2129359758219215</v>
+        <v>0.6838665427032969</v>
       </c>
       <c r="G9" t="n">
+        <v>0.9889924604437622</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.5651793414145035</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.1995067799558562</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.9125921764692132</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.9621310888427481</v>
+      </c>
+      <c r="M9" t="n">
         <v>0.2466427054947357</v>
       </c>
-      <c r="H9" t="n">
-        <v>0.8335477810461152</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.999999999999999</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.9666453377324367</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.2331930244846712</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.4764196968780709</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.9415491058899723</v>
-      </c>
       <c r="N9" t="n">
-        <v>0.4911684441091116</v>
+        <v>0.9188405370792183</v>
       </c>
       <c r="O9" t="n">
-        <v>0.3155052974281575</v>
+        <v>0.500370859724204</v>
       </c>
       <c r="P9" t="n">
-        <v>0.7482193884196088</v>
+        <v>0.9820250607813992</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="1" t="n">
-        <v>136</v>
+        <v>204</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5312350828188904</v>
+        <v>0.2921896458955796</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4443978803986556</v>
+        <v>0.219661056060752</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4460430096988122</v>
+        <v>0.2110556129150113</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7500013960274294</v>
+        <v>0.3257077193287514</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3489095095941086</v>
+        <v>0.5675480697017317</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4006878099930446</v>
+        <v>0.1862306138250087</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9222647467850525</v>
+        <v>0.7394217279623126</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9666453377324367</v>
+        <v>0.1995067799558562</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9999999999999994</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3776461830416422</v>
+        <v>0.2113024574069302</v>
       </c>
       <c r="L10" t="n">
-        <v>0.6532426683537897</v>
+        <v>0.3288750709023018</v>
       </c>
       <c r="M10" t="n">
-        <v>0.9826419228984224</v>
+        <v>0.9784072958459374</v>
       </c>
       <c r="N10" t="n">
-        <v>0.6693691948389043</v>
+        <v>0.155971629173492</v>
       </c>
       <c r="O10" t="n">
-        <v>0.4715529105927638</v>
+        <v>0.8631473894681969</v>
       </c>
       <c r="P10" t="n">
-        <v>0.8832905781121729</v>
+        <v>0.2210221980424426</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -888,290 +888,290 @@
         <v>0.6590993355898472</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9026970951277831</v>
+        <v>0.7370996181912122</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7035394533202185</v>
+        <v>0.6404660913421167</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7098623230043076</v>
+        <v>0.5366263770689889</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9125921764692132</v>
+        <v>0.8488934159174116</v>
       </c>
       <c r="H11" t="n">
         <v>0.4623502962374352</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2331930244846712</v>
+        <v>0.9125921764692132</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3776461830416422</v>
+        <v>0.2113024574069302</v>
       </c>
       <c r="K11" t="n">
         <v>0.9999999999999977</v>
       </c>
       <c r="L11" t="n">
-        <v>0.8662344821464698</v>
+        <v>0.8905414715436422</v>
       </c>
       <c r="M11" t="n">
-        <v>0.3692508819096741</v>
+        <v>0.2331930244846712</v>
       </c>
       <c r="N11" t="n">
-        <v>0.7523034731043271</v>
+        <v>0.7098623230043076</v>
       </c>
       <c r="O11" t="n">
-        <v>0.6977351379513087</v>
+        <v>0.472304180556912</v>
       </c>
       <c r="P11" t="n">
-        <v>0.6166988549303264</v>
+        <v>0.8351945539144833</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="1" t="n">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B12" t="n">
-        <v>0.7274507043148952</v>
+        <v>0.8243439133698794</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7590473033190204</v>
+        <v>0.877967046742961</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8923553314327566</v>
+        <v>0.9177248837732551</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9274382791896623</v>
+        <v>0.8867908925769389</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7267109827562065</v>
+        <v>0.802889290744116</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8660565449162155</v>
+        <v>0.9452806436642047</v>
       </c>
       <c r="H12" t="n">
-        <v>0.7338574581419918</v>
+        <v>0.7103592670357154</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4764196968780709</v>
+        <v>0.9621310888427481</v>
       </c>
       <c r="J12" t="n">
-        <v>0.6532426683537897</v>
+        <v>0.3288750709023018</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8662344821464698</v>
+        <v>0.8905414715436422</v>
       </c>
       <c r="L12" t="n">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.6443641873551009</v>
+        <v>0.386117865965318</v>
       </c>
       <c r="N12" t="n">
-        <v>0.9535869676868294</v>
+        <v>0.8670412797192473</v>
       </c>
       <c r="O12" t="n">
-        <v>0.8016901636934247</v>
+        <v>0.6664753950254517</v>
       </c>
       <c r="P12" t="n">
-        <v>0.8822847391957459</v>
+        <v>0.9621746434878928</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="1" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>0.6243486396460526</v>
+        <v>0.3874617546197744</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5206390095779966</v>
+        <v>0.2958259168869475</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4786302488393721</v>
+        <v>0.2791043367584161</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7887004349200695</v>
+        <v>0.4183480179348009</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4078597798256571</v>
+        <v>0.6731407481616737</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4304843041025677</v>
+        <v>0.2388990052197546</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9687875471945941</v>
+        <v>0.8335477810461152</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9415491058899723</v>
+        <v>0.2466427054947357</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9826419228984224</v>
+        <v>0.9784072958459374</v>
       </c>
       <c r="K13" t="n">
-        <v>0.3692508819096741</v>
+        <v>0.2331930244846712</v>
       </c>
       <c r="L13" t="n">
-        <v>0.6443641873551009</v>
+        <v>0.386117865965318</v>
       </c>
       <c r="M13" t="n">
-        <v>1.000000000000001</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="N13" t="n">
-        <v>0.69982046883687</v>
+        <v>0.2129359758219215</v>
       </c>
       <c r="O13" t="n">
-        <v>0.5434554728559404</v>
+        <v>0.9111235367640796</v>
       </c>
       <c r="P13" t="n">
-        <v>0.9064181882674216</v>
+        <v>0.281148870932705</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="1" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>0.8715607685519557</v>
+        <v>0.8659503811327621</v>
       </c>
       <c r="C14" t="n">
-        <v>0.878896552082704</v>
+        <v>0.9632363915993691</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8921488563251552</v>
+        <v>0.9856406373406972</v>
       </c>
       <c r="E14" t="n">
-        <v>0.987979267606519</v>
+        <v>0.8946827082821999</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8112522023724603</v>
+        <v>0.7090385504210664</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8562431537966352</v>
+        <v>0.9661145249305612</v>
       </c>
       <c r="H14" t="n">
-        <v>0.8196535774279831</v>
+        <v>0.5611891528086587</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4911684441091116</v>
+        <v>0.9188405370792183</v>
       </c>
       <c r="J14" t="n">
-        <v>0.6693691948389043</v>
+        <v>0.155971629173492</v>
       </c>
       <c r="K14" t="n">
-        <v>0.7523034731043271</v>
+        <v>0.7098623230043076</v>
       </c>
       <c r="L14" t="n">
-        <v>0.9535869676868294</v>
+        <v>0.8670412797192473</v>
       </c>
       <c r="M14" t="n">
-        <v>0.69982046883687</v>
+        <v>0.2129359758219215</v>
       </c>
       <c r="N14" t="n">
-        <v>0.9999999999999991</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="O14" t="n">
-        <v>0.9077156959505175</v>
+        <v>0.4370692257774254</v>
       </c>
       <c r="P14" t="n">
-        <v>0.929682346803161</v>
+        <v>0.9645989799199129</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="1" t="n">
-        <v>101</v>
+        <v>153</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9615516482886011</v>
+        <v>0.6119721747145386</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9952540042678321</v>
+        <v>0.5358039909626182</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9186975996692778</v>
+        <v>0.5253859511008863</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8933340622073126</v>
+        <v>0.6594975549085689</v>
       </c>
       <c r="F15" t="n">
-        <v>0.955627032479602</v>
+        <v>0.8539773277348565</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8968949036339405</v>
+        <v>0.4865032035005998</v>
       </c>
       <c r="H15" t="n">
-        <v>0.7067686301203365</v>
+        <v>0.94605616152012</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3155052974281575</v>
+        <v>0.500370859724204</v>
       </c>
       <c r="J15" t="n">
-        <v>0.4715529105927638</v>
+        <v>0.8631473894681969</v>
       </c>
       <c r="K15" t="n">
-        <v>0.6977351379513087</v>
+        <v>0.472304180556912</v>
       </c>
       <c r="L15" t="n">
-        <v>0.8016901636934247</v>
+        <v>0.6664753950254517</v>
       </c>
       <c r="M15" t="n">
-        <v>0.5434554728559404</v>
+        <v>0.9111235367640796</v>
       </c>
       <c r="N15" t="n">
-        <v>0.9077156959505175</v>
+        <v>0.4370692257774254</v>
       </c>
       <c r="O15" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="P15" t="n">
-        <v>0.7793471954373371</v>
+        <v>0.5384847488582822</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="1" t="n">
-        <v>134</v>
+        <v>51</v>
       </c>
       <c r="B16" t="n">
-        <v>0.8028080899722625</v>
+        <v>0.86596432210421</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7477066511407123</v>
+        <v>0.9464904151156773</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7432909135489647</v>
+        <v>0.9828122319745179</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9697056590022765</v>
+        <v>0.9128460877684059</v>
       </c>
       <c r="F16" t="n">
-        <v>0.6461570142564416</v>
+        <v>0.7645568493519578</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6957359349893749</v>
+        <v>0.9952179724305489</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9614526077731826</v>
+        <v>0.6343384066545052</v>
       </c>
       <c r="I16" t="n">
-        <v>0.7482193884196088</v>
+        <v>0.9820250607813992</v>
       </c>
       <c r="J16" t="n">
-        <v>0.8832905781121729</v>
+        <v>0.2210221980424426</v>
       </c>
       <c r="K16" t="n">
-        <v>0.6166988549303264</v>
+        <v>0.8351945539144833</v>
       </c>
       <c r="L16" t="n">
-        <v>0.8822847391957459</v>
+        <v>0.9621746434878928</v>
       </c>
       <c r="M16" t="n">
-        <v>0.9064181882674216</v>
+        <v>0.281148870932705</v>
       </c>
       <c r="N16" t="n">
-        <v>0.929682346803161</v>
+        <v>0.9645989799199129</v>
       </c>
       <c r="O16" t="n">
-        <v>0.7793471954373371</v>
+        <v>0.5384847488582822</v>
       </c>
       <c r="P16" t="n">
         <v>1.000000000000001</v>
@@ -1207,13 +1207,13 @@
         <v>18</v>
       </c>
       <c r="E1" s="1" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="n">
         <v>36</v>
       </c>
       <c r="G1" s="1" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1230,13 +1230,13 @@
         <v>0.9188561297474037</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8659503811327621</v>
+        <v>0.5681088836017403</v>
       </c>
       <c r="F2" t="n">
         <v>0.3874617546197744</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5681088836017403</v>
+        <v>0.8659503811327621</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1253,13 +1253,13 @@
         <v>0.9331053480012905</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9632363915993691</v>
+        <v>0.6590993355898472</v>
       </c>
       <c r="F3" t="n">
         <v>0.2958259168869475</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6590993355898472</v>
+        <v>0.9632363915993691</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1276,33 +1276,33 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8716833685607683</v>
+        <v>0.7486697262388146</v>
       </c>
       <c r="F4" t="n">
         <v>0.4445959664112384</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7486697262388146</v>
+        <v>0.8716833685607683</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8659503811327621</v>
+        <v>0.5681088836017403</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9632363915993691</v>
+        <v>0.6590993355898472</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8716833685607683</v>
+        <v>0.7486697262388146</v>
       </c>
       <c r="E5" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999977</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2129359758219215</v>
+        <v>0.2331930244846713</v>
       </c>
       <c r="G5" t="n">
         <v>0.7098623230043076</v>
@@ -1322,36 +1322,36 @@
         <v>0.4445959664112384</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2129359758219215</v>
+        <v>0.2331930244846713</v>
       </c>
       <c r="F6" t="n">
         <v>0.999999999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2331930244846713</v>
+        <v>0.2129359758219215</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5681088836017403</v>
+        <v>0.8659503811327621</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6590993355898472</v>
+        <v>0.9632363915993691</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7486697262388146</v>
+        <v>0.8716833685607683</v>
       </c>
       <c r="E7" t="n">
         <v>0.7098623230043076</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2331930244846713</v>
+        <v>0.2129359758219215</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9999999999999977</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1381,13 +1381,13 @@
         <v>15</v>
       </c>
       <c r="D1" s="1" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="n">
         <v>36</v>
       </c>
       <c r="F1" s="1" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1401,13 +1401,13 @@
         <v>0.9647147743635598</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8659503811327621</v>
+        <v>0.5681088836017403</v>
       </c>
       <c r="E2" t="n">
         <v>0.3874617546197744</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5681088836017403</v>
+        <v>0.8659503811327621</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1421,30 +1421,30 @@
         <v>0.9999999999999991</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9632363915993691</v>
+        <v>0.6590993355898472</v>
       </c>
       <c r="E3" t="n">
         <v>0.2958259168869475</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6590993355898472</v>
+        <v>0.9632363915993691</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8659503811327621</v>
+        <v>0.5681088836017403</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9632363915993691</v>
+        <v>0.6590993355898472</v>
       </c>
       <c r="D4" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999977</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2129359758219215</v>
+        <v>0.2331930244846713</v>
       </c>
       <c r="F4" t="n">
         <v>0.7098623230043076</v>
@@ -1461,33 +1461,33 @@
         <v>0.2958259168869475</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2129359758219215</v>
+        <v>0.2331930244846713</v>
       </c>
       <c r="E5" t="n">
         <v>0.999999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2331930244846713</v>
+        <v>0.2129359758219215</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5681088836017403</v>
+        <v>0.8659503811327621</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6590993355898472</v>
+        <v>0.9632363915993691</v>
       </c>
       <c r="D6" t="n">
         <v>0.7098623230043076</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2331930244846713</v>
+        <v>0.2129359758219215</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999999999999977</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1653,40 +1653,40 @@
         <v>15</v>
       </c>
       <c r="D1" s="1" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="n">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="F1" s="1" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H1" s="1" t="n">
         <v>33</v>
       </c>
       <c r="I1" s="1" t="n">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="J1" s="1" t="n">
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="K1" s="1" t="n">
         <v>14</v>
       </c>
       <c r="L1" s="1" t="n">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="M1" s="1" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N1" s="1" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="O1" s="1" t="n">
-        <v>134</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -1700,40 +1700,40 @@
         <v>0.9647147743635599</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8087074476349246</v>
+        <v>0.9223955340867503</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8867373991806939</v>
+        <v>0.9900777641223389</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8659503811327621</v>
+        <v>0.9145461311393663</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7746182614176115</v>
+        <v>0.843874066442475</v>
       </c>
       <c r="H2" t="n">
         <v>0.7839818249638393</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3874617546197744</v>
+        <v>0.8376761647075617</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4490307831460268</v>
+        <v>0.2921896458955796</v>
       </c>
       <c r="K2" t="n">
         <v>0.5681088836017403</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7673452183158158</v>
+        <v>0.8243439133698794</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6243486396460526</v>
+        <v>0.3874617546197744</v>
       </c>
       <c r="N2" t="n">
-        <v>0.8715607685519557</v>
+        <v>0.8659503811327621</v>
       </c>
       <c r="O2" t="n">
-        <v>0.8028080899722625</v>
+        <v>0.6119721747145386</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1747,228 +1747,228 @@
         <v>0.9999999999999991</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8934056122583481</v>
+        <v>0.9876577486399527</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8648645937752387</v>
+        <v>0.9754018054026382</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9632363915993691</v>
+        <v>0.8333681331439882</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8737306524408875</v>
+        <v>0.9434117165765913</v>
       </c>
       <c r="H3" t="n">
         <v>0.6854042142631881</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2958259168869475</v>
+        <v>0.9209054089489839</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3692782601707072</v>
+        <v>0.219661056060752</v>
       </c>
       <c r="K3" t="n">
         <v>0.6590993355898472</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8105220243638785</v>
+        <v>0.877967046742961</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5206390095779966</v>
+        <v>0.2958259168869475</v>
       </c>
       <c r="N3" t="n">
-        <v>0.878896552082704</v>
+        <v>0.9632363915993691</v>
       </c>
       <c r="O3" t="n">
-        <v>0.7477066511407123</v>
+        <v>0.5358039909626182</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8087074476349246</v>
+        <v>0.9223955340867503</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8934056122583481</v>
+        <v>0.9876577486399527</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8556633960923492</v>
+        <v>0.950689136848395</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9199498609715864</v>
+        <v>0.7961611677877166</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9966101845865885</v>
+        <v>0.9830123405328334</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6155794301168758</v>
+        <v>0.6529193464844768</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2852879696520029</v>
+        <v>0.9654744102772896</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3855036610914286</v>
+        <v>0.2110556129150113</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9026970951277831</v>
+        <v>0.7370996181912122</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9416328698997579</v>
+        <v>0.9177248837732551</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4786302488393721</v>
+        <v>0.2791043367584161</v>
       </c>
       <c r="N4" t="n">
-        <v>0.8921488563251552</v>
+        <v>0.9856406373406972</v>
       </c>
       <c r="O4" t="n">
-        <v>0.7432909135489647</v>
+        <v>0.5253859511008863</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1" t="n">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8867373991806939</v>
+        <v>0.9900777641223389</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8648645937752387</v>
+        <v>0.9754018054026382</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8556633960923492</v>
+        <v>0.950689136848395</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.9999999999999987</v>
       </c>
       <c r="F5" t="n">
-        <v>0.778826355784451</v>
+        <v>0.9284088631256805</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8142464552518164</v>
+        <v>0.8875144898171601</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8948725444333477</v>
+        <v>0.8078512923453198</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5845828640396185</v>
+        <v>0.8910239315133698</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6857772474548237</v>
+        <v>0.3257077193287514</v>
       </c>
       <c r="K5" t="n">
-        <v>0.7035394533202185</v>
+        <v>0.6404660913421167</v>
       </c>
       <c r="L5" t="n">
-        <v>0.9295416364457798</v>
+        <v>0.8867908925769389</v>
       </c>
       <c r="M5" t="n">
-        <v>0.7887004349200695</v>
+        <v>0.4183480179348009</v>
       </c>
       <c r="N5" t="n">
-        <v>0.987979267606519</v>
+        <v>0.8946827082821999</v>
       </c>
       <c r="O5" t="n">
-        <v>0.9697056590022765</v>
+        <v>0.6594975549085689</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8659503811327621</v>
+        <v>0.9145461311393663</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9632363915993691</v>
+        <v>0.8333681331439882</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9199498609715864</v>
+        <v>0.7961611677877166</v>
       </c>
       <c r="E6" t="n">
-        <v>0.778826355784451</v>
+        <v>0.9284088631256805</v>
       </c>
       <c r="F6" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999986</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9188405370792183</v>
+        <v>0.7142561097261672</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5611891528086587</v>
+        <v>0.9646528335593058</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2129359758219215</v>
+        <v>0.7489296527070338</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2845237842064998</v>
+        <v>0.5675480697017317</v>
       </c>
       <c r="K6" t="n">
-        <v>0.7098623230043076</v>
+        <v>0.5366263770689889</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7901098245040672</v>
+        <v>0.802889290744116</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4078597798256571</v>
+        <v>0.6731407481616737</v>
       </c>
       <c r="N6" t="n">
-        <v>0.8112522023724603</v>
+        <v>0.7090385504210664</v>
       </c>
       <c r="O6" t="n">
-        <v>0.6461570142564416</v>
+        <v>0.8539773277348565</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>0.7746182614176115</v>
+        <v>0.843874066442475</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8737306524408875</v>
+        <v>0.9434117165765913</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9966101845865885</v>
+        <v>0.9830123405328334</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8142464552518164</v>
+        <v>0.8875144898171601</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9188405370792183</v>
+        <v>0.7142561097261672</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5651793414145035</v>
+        <v>0.5760983877272431</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2466427054947357</v>
+        <v>0.9853510437062334</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3432858592176573</v>
+        <v>0.1774256663946865</v>
       </c>
       <c r="K7" t="n">
-        <v>0.9125921764692132</v>
+        <v>0.8079383374894888</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9201881427039732</v>
+        <v>0.9268146288784986</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4304843041025677</v>
+        <v>0.232213107155899</v>
       </c>
       <c r="N7" t="n">
-        <v>0.8562431537966352</v>
+        <v>0.984053225259226</v>
       </c>
       <c r="O7" t="n">
-        <v>0.6957359349893749</v>
+        <v>0.4740139024603487</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1982,134 +1982,134 @@
         <v>0.6854042142631881</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6155794301168758</v>
+        <v>0.6529193464844768</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8948725444333477</v>
+        <v>0.8078512923453198</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5611891528086587</v>
+        <v>0.9646528335593058</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5651793414145035</v>
+        <v>0.5760983877272431</v>
       </c>
       <c r="H8" t="n">
         <v>0.999999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8335477810461153</v>
+        <v>0.6257562566791348</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8683007487431673</v>
+        <v>0.7394217279623125</v>
       </c>
       <c r="K8" t="n">
         <v>0.4623502962374352</v>
       </c>
       <c r="L8" t="n">
-        <v>0.7215513019052406</v>
+        <v>0.7103592670357154</v>
       </c>
       <c r="M8" t="n">
-        <v>0.9687875471945941</v>
+        <v>0.8335477810461152</v>
       </c>
       <c r="N8" t="n">
-        <v>0.8196535774279831</v>
+        <v>0.5611891528086587</v>
       </c>
       <c r="O8" t="n">
-        <v>0.9614526077731826</v>
+        <v>0.94605616152012</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1" t="n">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="B9" t="n">
-        <v>0.3874617546197744</v>
+        <v>0.8376761647075617</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2958259168869475</v>
+        <v>0.9209054089489839</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2852879696520029</v>
+        <v>0.9654744102772896</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5845828640396185</v>
+        <v>0.8910239315133698</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2129359758219215</v>
+        <v>0.7489296527070338</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2466427054947357</v>
+        <v>0.9853510437062334</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8335477810461153</v>
+        <v>0.6257562566791348</v>
       </c>
       <c r="I9" t="n">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999983</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9768097300520161</v>
+        <v>0.2271490939303315</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2331930244846713</v>
+        <v>0.8721978089911975</v>
       </c>
       <c r="L9" t="n">
-        <v>0.4341575482296772</v>
+        <v>0.9737631305233118</v>
       </c>
       <c r="M9" t="n">
-        <v>0.9415491058899723</v>
+        <v>0.2836492162247341</v>
       </c>
       <c r="N9" t="n">
-        <v>0.4911684441091116</v>
+        <v>0.9438624773211608</v>
       </c>
       <c r="O9" t="n">
-        <v>0.7482193884196088</v>
+        <v>0.5444009357054972</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1" t="n">
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="B10" t="n">
-        <v>0.4490307831460268</v>
+        <v>0.2921896458955796</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3692782601707072</v>
+        <v>0.219661056060752</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3855036610914286</v>
+        <v>0.2110556129150113</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6857772474548237</v>
+        <v>0.3257077193287514</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2845237842064998</v>
+        <v>0.5675480697017317</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3432858592176573</v>
+        <v>0.1774256663946865</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8683007487431673</v>
+        <v>0.7394217279623125</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9768097300520161</v>
+        <v>0.2271490939303315</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9999999999999996</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3425172072912209</v>
+        <v>0.2113024574069302</v>
       </c>
       <c r="L10" t="n">
-        <v>0.5617122410667903</v>
+        <v>0.3288750709023018</v>
       </c>
       <c r="M10" t="n">
-        <v>0.9533570152858687</v>
+        <v>0.9784072958459374</v>
       </c>
       <c r="N10" t="n">
-        <v>0.6082899329862257</v>
+        <v>0.155971629173492</v>
       </c>
       <c r="O10" t="n">
-        <v>0.8322703801157286</v>
+        <v>0.8631473894681969</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -2123,228 +2123,228 @@
         <v>0.6590993355898472</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9026970951277831</v>
+        <v>0.7370996181912122</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7035394533202185</v>
+        <v>0.6404660913421167</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7098623230043076</v>
+        <v>0.5366263770689889</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9125921764692132</v>
+        <v>0.8079383374894888</v>
       </c>
       <c r="H11" t="n">
         <v>0.4623502962374352</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2331930244846713</v>
+        <v>0.8721978089911975</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3425172072912209</v>
+        <v>0.2113024574069302</v>
       </c>
       <c r="K11" t="n">
         <v>0.9999999999999977</v>
       </c>
       <c r="L11" t="n">
-        <v>0.8967812592018308</v>
+        <v>0.8905414715436422</v>
       </c>
       <c r="M11" t="n">
-        <v>0.3692508819096741</v>
+        <v>0.2331930244846712</v>
       </c>
       <c r="N11" t="n">
-        <v>0.7523034731043271</v>
+        <v>0.7098623230043076</v>
       </c>
       <c r="O11" t="n">
-        <v>0.6166988549303264</v>
+        <v>0.472304180556912</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1" t="n">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B12" t="n">
-        <v>0.7673452183158158</v>
+        <v>0.8243439133698794</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8105220243638785</v>
+        <v>0.877967046742961</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9416328698997579</v>
+        <v>0.9177248837732551</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9295416364457798</v>
+        <v>0.8867908925769389</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7901098245040672</v>
+        <v>0.802889290744116</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9201881427039732</v>
+        <v>0.9268146288784986</v>
       </c>
       <c r="H12" t="n">
-        <v>0.7215513019052406</v>
+        <v>0.7103592670357154</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4341575482296772</v>
+        <v>0.9737631305233118</v>
       </c>
       <c r="J12" t="n">
-        <v>0.5617122410667903</v>
+        <v>0.3288750709023018</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8967812592018308</v>
+        <v>0.8905414715436422</v>
       </c>
       <c r="L12" t="n">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.6157107328831538</v>
+        <v>0.386117865965318</v>
       </c>
       <c r="N12" t="n">
-        <v>0.9570511527799906</v>
+        <v>0.8670412797192472</v>
       </c>
       <c r="O12" t="n">
-        <v>0.8653453365377739</v>
+        <v>0.6664753950254517</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>0.6243486396460526</v>
+        <v>0.3874617546197744</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5206390095779966</v>
+        <v>0.2958259168869475</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4786302488393721</v>
+        <v>0.2791043367584161</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7887004349200695</v>
+        <v>0.4183480179348009</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4078597798256571</v>
+        <v>0.6731407481616737</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4304843041025677</v>
+        <v>0.232213107155899</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9687875471945941</v>
+        <v>0.8335477810461152</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9415491058899723</v>
+        <v>0.2836492162247341</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9533570152858687</v>
+        <v>0.9784072958459374</v>
       </c>
       <c r="K13" t="n">
-        <v>0.3692508819096741</v>
+        <v>0.2331930244846712</v>
       </c>
       <c r="L13" t="n">
-        <v>0.6157107328831538</v>
+        <v>0.386117865965318</v>
       </c>
       <c r="M13" t="n">
-        <v>1.000000000000001</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="N13" t="n">
-        <v>0.69982046883687</v>
+        <v>0.2129359758219215</v>
       </c>
       <c r="O13" t="n">
-        <v>0.9064181882674216</v>
+        <v>0.9111235367640798</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>0.8715607685519557</v>
+        <v>0.8659503811327621</v>
       </c>
       <c r="C14" t="n">
-        <v>0.878896552082704</v>
+        <v>0.9632363915993691</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8921488563251552</v>
+        <v>0.9856406373406972</v>
       </c>
       <c r="E14" t="n">
-        <v>0.987979267606519</v>
+        <v>0.8946827082821999</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8112522023724603</v>
+        <v>0.7090385504210664</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8562431537966352</v>
+        <v>0.984053225259226</v>
       </c>
       <c r="H14" t="n">
-        <v>0.8196535774279831</v>
+        <v>0.5611891528086587</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4911684441091116</v>
+        <v>0.9438624773211608</v>
       </c>
       <c r="J14" t="n">
-        <v>0.6082899329862257</v>
+        <v>0.155971629173492</v>
       </c>
       <c r="K14" t="n">
-        <v>0.7523034731043271</v>
+        <v>0.7098623230043076</v>
       </c>
       <c r="L14" t="n">
-        <v>0.9570511527799906</v>
+        <v>0.8670412797192472</v>
       </c>
       <c r="M14" t="n">
-        <v>0.69982046883687</v>
+        <v>0.2129359758219215</v>
       </c>
       <c r="N14" t="n">
-        <v>0.9999999999999991</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="O14" t="n">
-        <v>0.929682346803161</v>
+        <v>0.4370692257774254</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1" t="n">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="B15" t="n">
-        <v>0.8028080899722625</v>
+        <v>0.6119721747145386</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7477066511407123</v>
+        <v>0.5358039909626182</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7432909135489647</v>
+        <v>0.5253859511008863</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9697056590022765</v>
+        <v>0.6594975549085689</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6461570142564416</v>
+        <v>0.8539773277348565</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6957359349893749</v>
+        <v>0.4740139024603487</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9614526077731826</v>
+        <v>0.94605616152012</v>
       </c>
       <c r="I15" t="n">
-        <v>0.7482193884196088</v>
+        <v>0.5444009357054972</v>
       </c>
       <c r="J15" t="n">
-        <v>0.8322703801157286</v>
+        <v>0.8631473894681969</v>
       </c>
       <c r="K15" t="n">
-        <v>0.6166988549303264</v>
+        <v>0.472304180556912</v>
       </c>
       <c r="L15" t="n">
-        <v>0.8653453365377739</v>
+        <v>0.6664753950254517</v>
       </c>
       <c r="M15" t="n">
-        <v>0.9064181882674216</v>
+        <v>0.9111235367640798</v>
       </c>
       <c r="N15" t="n">
-        <v>0.929682346803161</v>
+        <v>0.4370692257774254</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2374,37 +2374,37 @@
         <v>15</v>
       </c>
       <c r="D1" s="1" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="n">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="F1" s="1" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H1" s="1" t="n">
         <v>33</v>
       </c>
       <c r="I1" s="1" t="n">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="J1" s="1" t="n">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="K1" s="1" t="n">
         <v>14</v>
       </c>
       <c r="L1" s="1" t="n">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="M1" s="1" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N1" s="1" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -2418,37 +2418,37 @@
         <v>0.9647147743635598</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8087074476349246</v>
+        <v>0.9223955340867503</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8867373991806939</v>
+        <v>0.9900777641223389</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8659503811327621</v>
+        <v>0.9145461311393663</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7746182614176115</v>
+        <v>0.843874066442475</v>
       </c>
       <c r="H2" t="n">
         <v>0.7839818249638393</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3874617546197744</v>
+        <v>0.8376761647075617</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8028080899722625</v>
+        <v>0.7384993742320957</v>
       </c>
       <c r="K2" t="n">
         <v>0.5681088836017403</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7673452183158158</v>
+        <v>0.8558994334960256</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4860159163130412</v>
+        <v>0.3874617546197744</v>
       </c>
       <c r="N2" t="n">
-        <v>0.8715607685519557</v>
+        <v>0.8659503811327621</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -2462,213 +2462,213 @@
         <v>0.9999999999999991</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8934056122583481</v>
+        <v>0.9876577486399527</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8648645937752387</v>
+        <v>0.9754018054026382</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9632363915993691</v>
+        <v>0.8333681331439882</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8737306524408875</v>
+        <v>0.9434117165765913</v>
       </c>
       <c r="H3" t="n">
         <v>0.6854042142631881</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2958259168869475</v>
+        <v>0.9209054089489839</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7477066511407123</v>
+        <v>0.6822198673986561</v>
       </c>
       <c r="K3" t="n">
         <v>0.6590993355898472</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8105220243638785</v>
+        <v>0.9057510358834944</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3865897684483788</v>
+        <v>0.2958259168869475</v>
       </c>
       <c r="N3" t="n">
-        <v>0.878896552082704</v>
+        <v>0.9632363915993691</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8087074476349246</v>
+        <v>0.9223955340867503</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8934056122583481</v>
+        <v>0.9876577486399527</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8556633960923492</v>
+        <v>0.950689136848395</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9199498609715864</v>
+        <v>0.7961611677877166</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9966101845865887</v>
+        <v>0.9830123405328335</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6155794301168758</v>
+        <v>0.6529193464844768</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2852879696520029</v>
+        <v>0.9654744102772896</v>
       </c>
       <c r="J4" t="n">
-        <v>0.7432909135489647</v>
+        <v>0.6754878995921327</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9026970951277831</v>
+        <v>0.7370996181912122</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9416328698997579</v>
+        <v>0.9384865305836644</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3640722158371175</v>
+        <v>0.2791043367584161</v>
       </c>
       <c r="N4" t="n">
-        <v>0.8921488563251552</v>
+        <v>0.9856406373406972</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="n">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8867373991806939</v>
+        <v>0.9900777641223389</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8648645937752387</v>
+        <v>0.9754018054026382</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8556633960923492</v>
+        <v>0.950689136848395</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.9999999999999987</v>
       </c>
       <c r="F5" t="n">
-        <v>0.778826355784451</v>
+        <v>0.9284088631256805</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8142464552518162</v>
+        <v>0.8875144898171601</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8948725444333477</v>
+        <v>0.8078512923453198</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5845828640396185</v>
+        <v>0.8910239315133698</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9697056590022765</v>
+        <v>0.7899850022751967</v>
       </c>
       <c r="K5" t="n">
-        <v>0.7035394533202185</v>
+        <v>0.6404660913421167</v>
       </c>
       <c r="L5" t="n">
-        <v>0.9295416364457798</v>
+        <v>0.9133903699782038</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6757119051496335</v>
+        <v>0.4183480179348009</v>
       </c>
       <c r="N5" t="n">
-        <v>0.987979267606519</v>
+        <v>0.8946827082821999</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8659503811327621</v>
+        <v>0.9145461311393663</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9632363915993691</v>
+        <v>0.8333681331439882</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9199498609715864</v>
+        <v>0.7961611677877166</v>
       </c>
       <c r="E6" t="n">
-        <v>0.778826355784451</v>
+        <v>0.9284088631256805</v>
       </c>
       <c r="F6" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999986</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9188405370792183</v>
+        <v>0.7142561097261672</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5611891528086587</v>
+        <v>0.9646528335593058</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2129359758219215</v>
+        <v>0.7489296527070338</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6461570142564416</v>
+        <v>0.9177131231157796</v>
       </c>
       <c r="K6" t="n">
-        <v>0.7098623230043076</v>
+        <v>0.5366263770689889</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7901098245040672</v>
+        <v>0.825282698303998</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2895383937668051</v>
+        <v>0.6731407481616737</v>
       </c>
       <c r="N6" t="n">
-        <v>0.8112522023724603</v>
+        <v>0.7090385504210664</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>0.7746182614176115</v>
+        <v>0.843874066442475</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8737306524408875</v>
+        <v>0.9434117165765913</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9966101845865887</v>
+        <v>0.9830123405328335</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8142464552518162</v>
+        <v>0.8875144898171601</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9188405370792183</v>
+        <v>0.7142561097261672</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5651793414145035</v>
+        <v>0.5760983877272431</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2466427054947357</v>
+        <v>0.9853510437062334</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6957359349893749</v>
+        <v>0.6244467150821166</v>
       </c>
       <c r="K7" t="n">
-        <v>0.9125921764692132</v>
+        <v>0.8079383374894888</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9201881427039732</v>
+        <v>0.9387642519878917</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3206466404120449</v>
+        <v>0.232213107155899</v>
       </c>
       <c r="N7" t="n">
-        <v>0.8562431537966352</v>
+        <v>0.984053225259226</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -2682,125 +2682,125 @@
         <v>0.6854042142631881</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6155794301168758</v>
+        <v>0.6529193464844768</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8948725444333477</v>
+        <v>0.8078512923453198</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5611891528086587</v>
+        <v>0.9646528335593058</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5651793414145035</v>
+        <v>0.5760983877272431</v>
       </c>
       <c r="H8" t="n">
         <v>0.999999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8335477810461153</v>
+        <v>0.6257562566791348</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9614526077731826</v>
+        <v>0.9509288680343904</v>
       </c>
       <c r="K8" t="n">
         <v>0.4623502962374352</v>
       </c>
       <c r="L8" t="n">
-        <v>0.7215513019052406</v>
+        <v>0.7259412066353514</v>
       </c>
       <c r="M8" t="n">
-        <v>0.9021079685708748</v>
+        <v>0.8335477810461152</v>
       </c>
       <c r="N8" t="n">
-        <v>0.8196535774279831</v>
+        <v>0.5611891528086587</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="n">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="B9" t="n">
-        <v>0.3874617546197744</v>
+        <v>0.8376761647075617</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2958259168869475</v>
+        <v>0.9209054089489839</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2852879696520029</v>
+        <v>0.9654744102772896</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5845828640396185</v>
+        <v>0.8910239315133698</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2129359758219215</v>
+        <v>0.7489296527070338</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2466427054947357</v>
+        <v>0.9853510437062334</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8335477810461153</v>
+        <v>0.6257562566791348</v>
       </c>
       <c r="I9" t="n">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999983</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7482193884196089</v>
+        <v>0.6949347691469554</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2331930244846712</v>
+        <v>0.8721978089911975</v>
       </c>
       <c r="L9" t="n">
-        <v>0.4341575482296772</v>
+        <v>0.9779581027557421</v>
       </c>
       <c r="M9" t="n">
-        <v>0.9892170325671797</v>
+        <v>0.2836492162247341</v>
       </c>
       <c r="N9" t="n">
-        <v>0.4911684441091116</v>
+        <v>0.9438624773211608</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="n">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="B10" t="n">
-        <v>0.8028080899722625</v>
+        <v>0.7384993742320957</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7477066511407123</v>
+        <v>0.6822198673986561</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7432909135489647</v>
+        <v>0.6754878995921327</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9697056590022765</v>
+        <v>0.7899850022751967</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6461570142564416</v>
+        <v>0.9177131231157796</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6957359349893749</v>
+        <v>0.6244467150821166</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9614526077731826</v>
+        <v>0.9509288680343904</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7482193884196089</v>
+        <v>0.6949347691469554</v>
       </c>
       <c r="J10" t="n">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.6166988549303264</v>
+        <v>0.596609602438894</v>
       </c>
       <c r="L10" t="n">
-        <v>0.8653453365377739</v>
+        <v>0.8105214211815638</v>
       </c>
       <c r="M10" t="n">
-        <v>0.8244469805435198</v>
+        <v>0.7875346844566723</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9296823468031609</v>
+        <v>0.5829913556113484</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2814,169 +2814,169 @@
         <v>0.6590993355898472</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9026970951277831</v>
+        <v>0.7370996181912122</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7035394533202185</v>
+        <v>0.6404660913421167</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7098623230043076</v>
+        <v>0.5366263770689889</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9125921764692132</v>
+        <v>0.8079383374894888</v>
       </c>
       <c r="H11" t="n">
         <v>0.4623502962374352</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2331930244846712</v>
+        <v>0.8721978089911975</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6166988549303264</v>
+        <v>0.596609602438894</v>
       </c>
       <c r="K11" t="n">
         <v>0.9999999999999978</v>
       </c>
       <c r="L11" t="n">
-        <v>0.8967812592018308</v>
+        <v>0.8632637203146428</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2891549041684782</v>
+        <v>0.2331930244846712</v>
       </c>
       <c r="N11" t="n">
-        <v>0.7523034731043271</v>
+        <v>0.7098623230043076</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="n">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="B12" t="n">
-        <v>0.7673452183158158</v>
+        <v>0.8558994334960256</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8105220243638785</v>
+        <v>0.9057510358834944</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9416328698997579</v>
+        <v>0.9384865305836644</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9295416364457798</v>
+        <v>0.9133903699782038</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7901098245040672</v>
+        <v>0.825282698303998</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9201881427039732</v>
+        <v>0.9387642519878917</v>
       </c>
       <c r="H12" t="n">
-        <v>0.7215513019052406</v>
+        <v>0.7259412066353514</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4341575482296772</v>
+        <v>0.9779581027557421</v>
       </c>
       <c r="J12" t="n">
-        <v>0.8653453365377739</v>
+        <v>0.8105214211815638</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8967812592018308</v>
+        <v>0.8632637203146428</v>
       </c>
       <c r="L12" t="n">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="M12" t="n">
-        <v>0.5127066092789497</v>
+        <v>0.3873832322975833</v>
       </c>
       <c r="N12" t="n">
-        <v>0.9570511527799906</v>
+        <v>0.8886546607880462</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>0.4860159163130412</v>
+        <v>0.3874617546197744</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3865897684483788</v>
+        <v>0.2958259168869475</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3640722158371175</v>
+        <v>0.2791043367584161</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6757119051496335</v>
+        <v>0.4183480179348009</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2895383937668051</v>
+        <v>0.6731407481616737</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3206466404120449</v>
+        <v>0.232213107155899</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9021079685708748</v>
+        <v>0.8335477810461152</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9892170325671797</v>
+        <v>0.2836492162247341</v>
       </c>
       <c r="J13" t="n">
-        <v>0.8244469805435198</v>
+        <v>0.7875346844566723</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2891549041684782</v>
+        <v>0.2331930244846712</v>
       </c>
       <c r="L13" t="n">
-        <v>0.5127066092789497</v>
+        <v>0.3873832322975833</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="N13" t="n">
-        <v>0.5819320158540162</v>
+        <v>0.2129359758219215</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>0.8715607685519557</v>
+        <v>0.8659503811327621</v>
       </c>
       <c r="C14" t="n">
-        <v>0.878896552082704</v>
+        <v>0.9632363915993691</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8921488563251552</v>
+        <v>0.9856406373406972</v>
       </c>
       <c r="E14" t="n">
-        <v>0.987979267606519</v>
+        <v>0.8946827082821999</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8112522023724603</v>
+        <v>0.7090385504210664</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8562431537966352</v>
+        <v>0.984053225259226</v>
       </c>
       <c r="H14" t="n">
-        <v>0.8196535774279831</v>
+        <v>0.5611891528086587</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4911684441091116</v>
+        <v>0.9438624773211608</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9296823468031609</v>
+        <v>0.5829913556113484</v>
       </c>
       <c r="K14" t="n">
-        <v>0.7523034731043271</v>
+        <v>0.7098623230043076</v>
       </c>
       <c r="L14" t="n">
-        <v>0.9570511527799906</v>
+        <v>0.8886546607880462</v>
       </c>
       <c r="M14" t="n">
-        <v>0.5819320158540162</v>
+        <v>0.2129359758219215</v>
       </c>
       <c r="N14" t="n">
-        <v>0.9999999999999991</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -3006,34 +3006,34 @@
         <v>15</v>
       </c>
       <c r="D1" s="1" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="n">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="F1" s="1" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H1" s="1" t="n">
         <v>33</v>
       </c>
       <c r="I1" s="1" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="J1" s="1" t="n">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K1" s="1" t="n">
         <v>14</v>
       </c>
       <c r="L1" s="1" t="n">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="M1" s="1" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -3047,34 +3047,34 @@
         <v>0.9647147743635599</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8087074476349245</v>
+        <v>0.9223955340867501</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8644985121441332</v>
+        <v>0.9900777641223389</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8659503811327621</v>
+        <v>0.9145461311393663</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7746182614176115</v>
+        <v>0.843874066442475</v>
       </c>
       <c r="H2" t="n">
         <v>0.7839818249638393</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3874617546197744</v>
+        <v>0.8239910963466709</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8028080899722625</v>
+        <v>0.5312350828188904</v>
       </c>
       <c r="K2" t="n">
         <v>0.5681088836017403</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7397024891473338</v>
+        <v>0.3874617546197744</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4860159163130412</v>
+        <v>0.8659503811327621</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -3088,198 +3088,198 @@
         <v>0.9999999999999991</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8934056122583482</v>
+        <v>0.9876577486399527</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8118324270241349</v>
+        <v>0.9754018054026382</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9632363915993691</v>
+        <v>0.8333681331439882</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8737306524408875</v>
+        <v>0.9434117165765913</v>
       </c>
       <c r="H3" t="n">
         <v>0.6854042142631881</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2958259168869475</v>
+        <v>0.9237895706773891</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7477066511407123</v>
+        <v>0.4443978803986556</v>
       </c>
       <c r="K3" t="n">
         <v>0.6590993355898472</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7850568806185433</v>
+        <v>0.2958259168869475</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3865897684483788</v>
+        <v>0.9632363915993691</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8087074476349245</v>
+        <v>0.9223955340867501</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8934056122583482</v>
+        <v>0.9876577486399527</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7835300115769599</v>
+        <v>0.950689136848395</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9199498609715863</v>
+        <v>0.7961611677877166</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9966101845865887</v>
+        <v>0.9830123405328335</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6155794301168758</v>
+        <v>0.6529193464844768</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2852879696520029</v>
+        <v>0.9709078713196022</v>
       </c>
       <c r="J4" t="n">
-        <v>0.7432909135489647</v>
+        <v>0.4304989477686983</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9026970951277831</v>
+        <v>0.7370996181912122</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9333696677633184</v>
+        <v>0.2791043367584161</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3640722158371175</v>
+        <v>0.9856406373406972</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="n">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8644985121441332</v>
+        <v>0.9900777641223389</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8118324270241349</v>
+        <v>0.9754018054026382</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7835300115769599</v>
+        <v>0.950689136848395</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.9999999999999987</v>
       </c>
       <c r="F5" t="n">
-        <v>0.709179824637719</v>
+        <v>0.9284088631256806</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7372365210707129</v>
+        <v>0.8875144898171601</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9583854841295372</v>
+        <v>0.8078512923453198</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6953192071207754</v>
+        <v>0.8739525185666119</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9924837373747316</v>
+        <v>0.5723715751063119</v>
       </c>
       <c r="K5" t="n">
-        <v>0.6291579025084393</v>
+        <v>0.6404660913421167</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8574066354905407</v>
+        <v>0.4183480179348009</v>
       </c>
       <c r="M5" t="n">
-        <v>0.7806212616865862</v>
+        <v>0.8946827082821999</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8659503811327621</v>
+        <v>0.9145461311393663</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9632363915993691</v>
+        <v>0.8333681331439882</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9199498609715863</v>
+        <v>0.7961611677877166</v>
       </c>
       <c r="E6" t="n">
-        <v>0.709179824637719</v>
+        <v>0.9284088631256806</v>
       </c>
       <c r="F6" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999986</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9188405370792183</v>
+        <v>0.7142561097261672</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5611891528086586</v>
+        <v>0.9646528335593058</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2129359758219215</v>
+        <v>0.7081352091913564</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6461570142564416</v>
+        <v>0.7992545741001124</v>
       </c>
       <c r="K6" t="n">
-        <v>0.7098623230043076</v>
+        <v>0.5366263770689889</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7687929838821279</v>
+        <v>0.6731407481616737</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2895383937668051</v>
+        <v>0.7090385504210664</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>0.7746182614176115</v>
+        <v>0.843874066442475</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8737306524408875</v>
+        <v>0.9434117165765913</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9966101845865887</v>
+        <v>0.9830123405328335</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7372365210707129</v>
+        <v>0.8875144898171601</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9188405370792183</v>
+        <v>0.7142561097261672</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5651793414145034</v>
+        <v>0.5760983877272431</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2466427054947358</v>
+        <v>0.9965486819122765</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6957359349893749</v>
+        <v>0.3790138248176552</v>
       </c>
       <c r="K7" t="n">
-        <v>0.9125921764692132</v>
+        <v>0.8079383374894888</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9133916001353446</v>
+        <v>0.232213107155899</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3206466404120449</v>
+        <v>0.984053225259226</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -3293,116 +3293,116 @@
         <v>0.6854042142631881</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6155794301168758</v>
+        <v>0.6529193464844768</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9583854841295372</v>
+        <v>0.8078512923453198</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5611891528086586</v>
+        <v>0.9646528335593058</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5651793414145034</v>
+        <v>0.5760983877272431</v>
       </c>
       <c r="H8" t="n">
         <v>0.999999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8335477810461153</v>
+        <v>0.5761736050262032</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9614526077731826</v>
+        <v>0.9222647467850525</v>
       </c>
       <c r="K8" t="n">
         <v>0.4623502962374352</v>
       </c>
       <c r="L8" t="n">
-        <v>0.7043475805831216</v>
+        <v>0.8335477810461152</v>
       </c>
       <c r="M8" t="n">
-        <v>0.9021079685708748</v>
+        <v>0.5611891528086587</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
-        <v>0.3874617546197744</v>
+        <v>0.8239910963466709</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2958259168869475</v>
+        <v>0.9237895706773891</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2852879696520029</v>
+        <v>0.9709078713196022</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6953192071207754</v>
+        <v>0.8739525185666119</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2129359758219215</v>
+        <v>0.7081352091913564</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2466427054947358</v>
+        <v>0.9965486819122765</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8335477810461153</v>
+        <v>0.5761736050262032</v>
       </c>
       <c r="I9" t="n">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999982</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7482193884196088</v>
+        <v>0.3892452532159665</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2331930244846712</v>
+        <v>0.8488934159174116</v>
       </c>
       <c r="L9" t="n">
-        <v>0.4302301232876701</v>
+        <v>0.2388990052197546</v>
       </c>
       <c r="M9" t="n">
-        <v>0.9892170325671797</v>
+        <v>0.9661145249305612</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="n">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B10" t="n">
-        <v>0.8028080899722625</v>
+        <v>0.5312350828188904</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7477066511407123</v>
+        <v>0.4443978803986556</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7432909135489647</v>
+        <v>0.4304989477686983</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9924837373747316</v>
+        <v>0.5723715751063119</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6461570142564416</v>
+        <v>0.7992545741001124</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6957359349893749</v>
+        <v>0.3790138248176552</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9614526077731826</v>
+        <v>0.9222647467850525</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7482193884196088</v>
+        <v>0.3892452532159665</v>
       </c>
       <c r="J10" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="K10" t="n">
-        <v>0.6166988549303264</v>
+        <v>0.3776461830416422</v>
       </c>
       <c r="L10" t="n">
-        <v>0.8528887853264765</v>
+        <v>0.9666453377324367</v>
       </c>
       <c r="M10" t="n">
-        <v>0.8244469805435198</v>
+        <v>0.3489095095941086</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -3416,116 +3416,116 @@
         <v>0.6590993355898472</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9026970951277831</v>
+        <v>0.7370996181912122</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6291579025084393</v>
+        <v>0.6404660913421167</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7098623230043076</v>
+        <v>0.5366263770689889</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9125921764692132</v>
+        <v>0.8079383374894888</v>
       </c>
       <c r="H11" t="n">
         <v>0.4623502962374352</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2331930244846712</v>
+        <v>0.8488934159174116</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6166988549303264</v>
+        <v>0.3776461830416422</v>
       </c>
       <c r="K11" t="n">
         <v>0.9999999999999977</v>
       </c>
       <c r="L11" t="n">
-        <v>0.9099405809318598</v>
+        <v>0.2331930244846713</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2891549041684782</v>
+        <v>0.7098623230043076</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1" t="n">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="B12" t="n">
-        <v>0.7397024891473338</v>
+        <v>0.3874617546197744</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7850568806185433</v>
+        <v>0.2958259168869475</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9333696677633184</v>
+        <v>0.2791043367584161</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8574066354905407</v>
+        <v>0.4183480179348009</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7687929838821279</v>
+        <v>0.6731407481616737</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9133916001353446</v>
+        <v>0.232213107155899</v>
       </c>
       <c r="H12" t="n">
-        <v>0.7043475805831216</v>
+        <v>0.8335477810461152</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4302301232876701</v>
+        <v>0.2388990052197546</v>
       </c>
       <c r="J12" t="n">
-        <v>0.8528887853264765</v>
+        <v>0.9666453377324367</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9099405809318598</v>
+        <v>0.2331930244846713</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="M12" t="n">
-        <v>0.5057216637298676</v>
+        <v>0.2129359758219215</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>0.4860159163130412</v>
+        <v>0.8659503811327621</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3865897684483788</v>
+        <v>0.9632363915993691</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3640722158371175</v>
+        <v>0.9856406373406972</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7806212616865862</v>
+        <v>0.8946827082821999</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2895383937668051</v>
+        <v>0.7090385504210664</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3206466404120449</v>
+        <v>0.984053225259226</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9021079685708748</v>
+        <v>0.5611891528086587</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9892170325671797</v>
+        <v>0.9661145249305612</v>
       </c>
       <c r="J13" t="n">
-        <v>0.8244469805435198</v>
+        <v>0.3489095095941086</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2891549041684782</v>
+        <v>0.7098623230043076</v>
       </c>
       <c r="L13" t="n">
-        <v>0.5057216637298676</v>
+        <v>0.2129359758219215</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -3555,31 +3555,31 @@
         <v>15</v>
       </c>
       <c r="D1" s="1" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="n">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="F1" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="L1" s="1" t="n">
         <v>0</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -3593,31 +3593,31 @@
         <v>0.9647147743635599</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8087074476349245</v>
+        <v>0.9223955340867501</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8644985121441332</v>
+        <v>0.9900777641223389</v>
       </c>
       <c r="F2" t="n">
+        <v>0.9145461311393663</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.843874066442475</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.6243486396460526</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.8099686942234658</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.5681088836017403</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.3874617546197744</v>
+      </c>
+      <c r="L2" t="n">
         <v>0.8659503811327621</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.7746182614176115</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.7839818249638393</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.3874617546197744</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.8028080899722625</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5681088836017403</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.2571931470763035</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -3631,373 +3631,373 @@
         <v>0.9999999999999991</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8934056122583482</v>
+        <v>0.9876577486399527</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8118324270241349</v>
+        <v>0.9754018054026382</v>
       </c>
       <c r="F3" t="n">
+        <v>0.8333681331439882</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.9434117165765913</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.5206390095779966</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.8778921558581978</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.6590993355898472</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.2958259168869475</v>
+      </c>
+      <c r="L3" t="n">
         <v>0.9632363915993691</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.8737306524408875</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.6854042142631881</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.2958259168869475</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.7477066511407123</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.6590993355898472</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.188355167723511</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8087074476349245</v>
+        <v>0.9223955340867501</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8934056122583482</v>
+        <v>0.9876577486399527</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7835300115769599</v>
+        <v>0.950689136848395</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9199498609715863</v>
+        <v>0.7961611677877166</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9966101845865887</v>
+        <v>0.9830123405328335</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6155794301168758</v>
+        <v>0.4940979968208715</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2852879696520029</v>
+        <v>0.9275392493406914</v>
       </c>
       <c r="J4" t="n">
-        <v>0.7432909135489647</v>
+        <v>0.7370996181912122</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9026970951277831</v>
+        <v>0.2791043367584161</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1995264526004067</v>
+        <v>0.9856406373406972</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="n">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8644985121441332</v>
+        <v>0.9900777641223389</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8118324270241349</v>
+        <v>0.9754018054026382</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7835300115769599</v>
+        <v>0.950689136848395</v>
       </c>
       <c r="E5" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999989</v>
       </c>
       <c r="F5" t="n">
-        <v>0.709179824637719</v>
+        <v>0.9284088631256806</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7372365210707129</v>
+        <v>0.8875144898171601</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9583854841295372</v>
+        <v>0.653796411641812</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6953192071207754</v>
+        <v>0.8704939384195515</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9924837373747316</v>
+        <v>0.6404660913421167</v>
       </c>
       <c r="K5" t="n">
-        <v>0.6291579025084393</v>
+        <v>0.4183480179348009</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5619455685868708</v>
+        <v>0.8946827082821999</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8659503811327621</v>
+        <v>0.9145461311393663</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9632363915993691</v>
+        <v>0.8333681331439882</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9199498609715863</v>
+        <v>0.7961611677877166</v>
       </c>
       <c r="E6" t="n">
-        <v>0.709179824637719</v>
+        <v>0.9284088631256806</v>
       </c>
       <c r="F6" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999986</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9188405370792183</v>
+        <v>0.7142561097261672</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5611891528086586</v>
+        <v>0.8712925590442896</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2129359758219215</v>
+        <v>0.7639119513176801</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6461570142564416</v>
+        <v>0.5366263770689889</v>
       </c>
       <c r="K6" t="n">
-        <v>0.7098623230043076</v>
+        <v>0.6731407481616737</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1304429449138915</v>
+        <v>0.7090385504210664</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>0.7746182614176115</v>
+        <v>0.843874066442475</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8737306524408875</v>
+        <v>0.9434117165765913</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9966101845865887</v>
+        <v>0.9830123405328335</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7372365210707129</v>
+        <v>0.8875144898171601</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9188405370792183</v>
+        <v>0.7142561097261672</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5651793414145034</v>
+        <v>0.4273034161147677</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2466427054947357</v>
+        <v>0.9519370362642341</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6957359349893749</v>
+        <v>0.8079383374894888</v>
       </c>
       <c r="K7" t="n">
-        <v>0.9125921764692132</v>
+        <v>0.232213107155899</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1692394479611035</v>
+        <v>0.984053225259226</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7839818249638393</v>
+        <v>0.6243486396460526</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6854042142631881</v>
+        <v>0.5206390095779966</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6155794301168758</v>
+        <v>0.4940979968208715</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9583854841295372</v>
+        <v>0.653796411641812</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5611891528086586</v>
+        <v>0.8712925590442896</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5651793414145034</v>
+        <v>0.4273034161147677</v>
       </c>
       <c r="H8" t="n">
-        <v>0.999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8335477810461152</v>
+        <v>0.5328779355350171</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9614526077731826</v>
+        <v>0.3692508819096741</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4623502962374352</v>
+        <v>0.9415491058899723</v>
       </c>
       <c r="L8" t="n">
-        <v>0.6998939198668264</v>
+        <v>0.4078597798256571</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="n">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="B9" t="n">
-        <v>0.3874617546197744</v>
+        <v>0.8099686942234658</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2958259168869475</v>
+        <v>0.8778921558581978</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2852879696520029</v>
+        <v>0.9275392493406914</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6953192071207754</v>
+        <v>0.8704939384195515</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2129359758219215</v>
+        <v>0.7639119513176801</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2466427054947357</v>
+        <v>0.9519370362642341</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8335477810461152</v>
+        <v>0.5328779355350171</v>
       </c>
       <c r="I9" t="n">
-        <v>0.999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7482193884196088</v>
+        <v>0.9123926998010881</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2331930244846712</v>
+        <v>0.3396692310507595</v>
       </c>
       <c r="L9" t="n">
-        <v>0.9657842968150194</v>
+        <v>0.8911698477412783</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="n">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>0.8028080899722625</v>
+        <v>0.5681088836017403</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7477066511407123</v>
+        <v>0.6590993355898472</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7432909135489647</v>
+        <v>0.7370996181912122</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9924837373747316</v>
+        <v>0.6404660913421167</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6461570142564416</v>
+        <v>0.5366263770689889</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6957359349893749</v>
+        <v>0.8079383374894888</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9614526077731826</v>
+        <v>0.3692508819096741</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7482193884196088</v>
+        <v>0.9123926998010881</v>
       </c>
       <c r="J10" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999977</v>
       </c>
       <c r="K10" t="n">
-        <v>0.6166988549303264</v>
+        <v>0.2331930244846713</v>
       </c>
       <c r="L10" t="n">
-        <v>0.6252397174641069</v>
+        <v>0.7098623230043076</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="n">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5681088836017403</v>
+        <v>0.3874617546197744</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6590993355898472</v>
+        <v>0.2958259168869475</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9026970951277831</v>
+        <v>0.2791043367584161</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6291579025084393</v>
+        <v>0.4183480179348009</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7098623230043076</v>
+        <v>0.6731407481616737</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9125921764692132</v>
+        <v>0.232213107155899</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4623502962374352</v>
+        <v>0.9415491058899723</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2331930244846712</v>
+        <v>0.3396692310507595</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6166988549303264</v>
+        <v>0.2331930244846713</v>
       </c>
       <c r="K11" t="n">
-        <v>0.9999999999999977</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1815960463359403</v>
+        <v>0.2129359758219215</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1" t="n">
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>0.2571931470763035</v>
+        <v>0.8659503811327621</v>
       </c>
       <c r="C12" t="n">
-        <v>0.188355167723511</v>
+        <v>0.9632363915993691</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1995264526004067</v>
+        <v>0.9856406373406972</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5619455685868708</v>
+        <v>0.8946827082821999</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1304429449138915</v>
+        <v>0.7090385504210664</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1692394479611035</v>
+        <v>0.984053225259226</v>
       </c>
       <c r="H12" t="n">
-        <v>0.6998939198668264</v>
+        <v>0.4078597798256571</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9657842968150194</v>
+        <v>0.8911698477412783</v>
       </c>
       <c r="J12" t="n">
-        <v>0.6252397174641069</v>
+        <v>0.7098623230043076</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1815960463359403</v>
+        <v>0.2129359758219215</v>
       </c>
       <c r="L12" t="n">
-        <v>1.000000000000002</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -4027,28 +4027,28 @@
         <v>15</v>
       </c>
       <c r="D1" s="1" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="n">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="F1" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="K1" s="1" t="n">
         <v>0</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -4062,28 +4062,28 @@
         <v>0.9647147743635599</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8087074476349246</v>
+        <v>0.9223955340867503</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8644985121441332</v>
+        <v>0.9900777641223389</v>
       </c>
       <c r="F2" t="n">
+        <v>0.9827483215363568</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.843874066442475</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.86596432210421</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.5681088836017403</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.3874617546197744</v>
+      </c>
+      <c r="K2" t="n">
         <v>0.8659503811327621</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.7746182614176115</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.7839818249638393</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.3874617546197744</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.5604817206340211</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5681088836017403</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -4097,308 +4097,308 @@
         <v>0.9999999999999991</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8934056122583481</v>
+        <v>0.9876577486399527</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8118324270241349</v>
+        <v>0.9754018054026382</v>
       </c>
       <c r="F3" t="n">
+        <v>0.9253307748224663</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.9434117165765913</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.9464904151156773</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.6590993355898472</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.2958259168869475</v>
+      </c>
+      <c r="K3" t="n">
         <v>0.9632363915993691</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.8737306524408875</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.6854042142631881</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.2958259168869475</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.4868843411028322</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.6590993355898472</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8087074476349246</v>
+        <v>0.9223955340867503</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8934056122583481</v>
+        <v>0.9876577486399527</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7835300115769599</v>
+        <v>0.950689136848395</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9199498609715864</v>
+        <v>0.8851480561261091</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9966101845865885</v>
+        <v>0.9830123405328334</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6155794301168758</v>
+        <v>0.9828122319745179</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2852879696520029</v>
+        <v>0.7370996181912122</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5089661055766233</v>
+        <v>0.2791043367584161</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9026970951277831</v>
+        <v>0.9856406373406972</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="n">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8644985121441332</v>
+        <v>0.9900777641223389</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8118324270241349</v>
+        <v>0.9754018054026382</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7835300115769599</v>
+        <v>0.950689136848395</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.9999999999999987</v>
       </c>
       <c r="F5" t="n">
-        <v>0.709179824637719</v>
+        <v>0.9844737225928338</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7372365210707129</v>
+        <v>0.8875144898171601</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9583854841295372</v>
+        <v>0.9128460877684059</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6953192071207754</v>
+        <v>0.6404660913421167</v>
       </c>
       <c r="J5" t="n">
-        <v>0.871161551633552</v>
+        <v>0.4183480179348009</v>
       </c>
       <c r="K5" t="n">
-        <v>0.6291579025084393</v>
+        <v>0.8946827082821999</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8659503811327621</v>
+        <v>0.9827483215363568</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9632363915993691</v>
+        <v>0.9253307748224663</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9199498609715864</v>
+        <v>0.8851480561261091</v>
       </c>
       <c r="E6" t="n">
-        <v>0.709179824637719</v>
+        <v>0.9844737225928338</v>
       </c>
       <c r="F6" t="n">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9188405370792183</v>
+        <v>0.8036630657491202</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5611891528086587</v>
+        <v>0.8404218525149283</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2129359758219215</v>
+        <v>0.5698170534000677</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3932687278391086</v>
+        <v>0.5115196258481479</v>
       </c>
       <c r="K6" t="n">
-        <v>0.7098623230043076</v>
+        <v>0.8116842143452301</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>0.7746182614176115</v>
+        <v>0.843874066442475</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8737306524408875</v>
+        <v>0.9434117165765913</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9966101845865885</v>
+        <v>0.9830123405328334</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7372365210707129</v>
+        <v>0.8875144898171601</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9188405370792183</v>
+        <v>0.8036630657491202</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5651793414145035</v>
+        <v>0.9928914392332961</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2466427054947357</v>
+        <v>0.8079383374894888</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4626440074656677</v>
+        <v>0.232213107155899</v>
       </c>
       <c r="K7" t="n">
-        <v>0.9125921764692132</v>
+        <v>0.984053225259226</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="n">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7839818249638393</v>
+        <v>0.86596432210421</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6854042142631881</v>
+        <v>0.9464904151156773</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6155794301168758</v>
+        <v>0.9828122319745179</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9583854841295372</v>
+        <v>0.9128460877684059</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5611891528086587</v>
+        <v>0.8404218525149283</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5651793414145035</v>
+        <v>0.9928914392332961</v>
       </c>
       <c r="H8" t="n">
-        <v>0.999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8335477810461153</v>
+        <v>0.8351945539144832</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9192506416779311</v>
+        <v>0.2811488709327051</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4623502962374352</v>
+        <v>0.9645989799199129</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>0.3874617546197744</v>
+        <v>0.5681088836017403</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2958259168869475</v>
+        <v>0.6590993355898472</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2852879696520029</v>
+        <v>0.7370996181912122</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6953192071207754</v>
+        <v>0.6404660913421167</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2129359758219215</v>
+        <v>0.5698170534000677</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2466427054947357</v>
+        <v>0.8079383374894888</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8335477810461153</v>
+        <v>0.8351945539144832</v>
       </c>
       <c r="I9" t="n">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999977</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9238007009310826</v>
+        <v>0.2331930244846713</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2331930244846713</v>
+        <v>0.7098623230043076</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="n">
-        <v>175</v>
+        <v>36</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5604817206340211</v>
+        <v>0.3874617546197744</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4868843411028322</v>
+        <v>0.2958259168869475</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5089661055766233</v>
+        <v>0.2791043367584161</v>
       </c>
       <c r="E10" t="n">
-        <v>0.871161551633552</v>
+        <v>0.4183480179348009</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3932687278391086</v>
+        <v>0.5115196258481479</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4626440074656677</v>
+        <v>0.232213107155899</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9192506416779311</v>
+        <v>0.2811488709327051</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9238007009310826</v>
+        <v>0.2331930244846713</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4506745292883068</v>
+        <v>0.2129359758219215</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5681088836017403</v>
+        <v>0.8659503811327621</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6590993355898472</v>
+        <v>0.9632363915993691</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9026970951277831</v>
+        <v>0.9856406373406972</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6291579025084393</v>
+        <v>0.8946827082821999</v>
       </c>
       <c r="F11" t="n">
+        <v>0.8116842143452301</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.984053225259226</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.9645989799199129</v>
+      </c>
+      <c r="I11" t="n">
         <v>0.7098623230043076</v>
       </c>
-      <c r="G11" t="n">
-        <v>0.9125921764692132</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.4623502962374352</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.2331930244846713</v>
-      </c>
       <c r="J11" t="n">
-        <v>0.4506745292883068</v>
+        <v>0.2129359758219215</v>
       </c>
       <c r="K11" t="n">
-        <v>0.9999999999999977</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -4428,25 +4428,25 @@
         <v>15</v>
       </c>
       <c r="D1" s="1" t="n">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="n">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="F1" s="1" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="G1" s="1" t="n">
-        <v>176</v>
+        <v>1</v>
       </c>
       <c r="H1" s="1" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="I1" s="1" t="n">
         <v>36</v>
       </c>
       <c r="J1" s="1" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -4460,25 +4460,25 @@
         <v>0.9647147743635598</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7645268676308811</v>
+        <v>0.9223955340867503</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8644985121441332</v>
+        <v>0.9900777641223389</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8659503811327621</v>
+        <v>0.9827483215363568</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4490307831460268</v>
+        <v>0.8583438236045128</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7839818249638393</v>
+        <v>0.5681088836017403</v>
       </c>
       <c r="I2" t="n">
         <v>0.3874617546197744</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5681088836017403</v>
+        <v>0.8659503811327621</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4492,185 +4492,185 @@
         <v>0.9999999999999991</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8227705870159573</v>
+        <v>0.9876577486399527</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8118324270241349</v>
+        <v>0.9754018054026382</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9632363915993691</v>
+        <v>0.9253307748224663</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3692782601707072</v>
+        <v>0.9570684701432297</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6854042142631881</v>
+        <v>0.6590993355898472</v>
       </c>
       <c r="I3" t="n">
         <v>0.2958259168869475</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6590993355898472</v>
+        <v>0.9632363915993691</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="B4" t="n">
-        <v>0.7645268676308811</v>
+        <v>0.9223955340867503</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8227705870159573</v>
+        <v>0.9876577486399527</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8386356552379816</v>
+        <v>0.950689136848395</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8208159885076715</v>
+        <v>0.8851480561261091</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5022884212160246</v>
+        <v>0.9883393705643212</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6781205124728343</v>
+        <v>0.7370996181912122</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3815500894664462</v>
+        <v>0.2791043367584161</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9291007590064713</v>
+        <v>0.9856406373406972</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8644985121441332</v>
+        <v>0.9900777641223389</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8118324270241349</v>
+        <v>0.9754018054026382</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8386356552379816</v>
+        <v>0.950689136848395</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.9999999999999987</v>
       </c>
       <c r="F5" t="n">
-        <v>0.709179824637719</v>
+        <v>0.9844737225928338</v>
       </c>
       <c r="G5" t="n">
-        <v>0.775395522763986</v>
+        <v>0.8948336910903947</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9583854841295372</v>
+        <v>0.6404660913421167</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6953192071207754</v>
+        <v>0.4183480179348009</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6291579025084393</v>
+        <v>0.8946827082821999</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8659503811327621</v>
+        <v>0.9827483215363568</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9632363915993691</v>
+        <v>0.9253307748224663</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8208159885076715</v>
+        <v>0.8851480561261091</v>
       </c>
       <c r="E6" t="n">
-        <v>0.709179824637719</v>
+        <v>0.9844737225928338</v>
       </c>
       <c r="F6" t="n">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2845237842064998</v>
+        <v>0.8111142056913497</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5611891528086587</v>
+        <v>0.5698170534000677</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2129359758219215</v>
+        <v>0.5115196258481479</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7098623230043076</v>
+        <v>0.8116842143452301</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
-        <v>176</v>
+        <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>0.4490307831460268</v>
+        <v>0.8583438236045128</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3692782601707072</v>
+        <v>0.9570684701432297</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5022884212160246</v>
+        <v>0.9883393705643212</v>
       </c>
       <c r="E7" t="n">
-        <v>0.775395522763986</v>
+        <v>0.8948336910903947</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2845237842064998</v>
+        <v>0.8111142056913497</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9999999999999993</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8683007487431674</v>
+        <v>0.7612364753439128</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9768097300520158</v>
+        <v>0.223515273802158</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3425172072912208</v>
+        <v>0.9958444289653027</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7839818249638393</v>
+        <v>0.5681088836017403</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6854042142631881</v>
+        <v>0.6590993355898472</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6781205124728343</v>
+        <v>0.7370996181912122</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9583854841295372</v>
+        <v>0.6404660913421167</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5611891528086587</v>
+        <v>0.5698170534000677</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8683007487431674</v>
+        <v>0.7612364753439128</v>
       </c>
       <c r="H8" t="n">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999977</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8335477810461153</v>
+        <v>0.2331930244846713</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4623502962374352</v>
+        <v>0.7098623230043076</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -4684,57 +4684,57 @@
         <v>0.2958259168869475</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3815500894664462</v>
+        <v>0.2791043367584161</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6953192071207754</v>
+        <v>0.4183480179348009</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2129359758219215</v>
+        <v>0.5115196258481479</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9768097300520158</v>
+        <v>0.223515273802158</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8335477810461153</v>
+        <v>0.2331930244846713</v>
       </c>
       <c r="I9" t="n">
         <v>0.999999999999999</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2331930244846713</v>
+        <v>0.2129359758219215</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5681088836017403</v>
+        <v>0.8659503811327621</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6590993355898472</v>
+        <v>0.9632363915993691</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9291007590064713</v>
+        <v>0.9856406373406972</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6291579025084393</v>
+        <v>0.8946827082821999</v>
       </c>
       <c r="F10" t="n">
+        <v>0.8116842143452301</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.9958444289653027</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.7098623230043076</v>
       </c>
-      <c r="G10" t="n">
-        <v>0.3425172072912208</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.4623502962374352</v>
-      </c>
       <c r="I10" t="n">
-        <v>0.2331930244846713</v>
+        <v>0.2129359758219215</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9999999999999977</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -4764,22 +4764,22 @@
         <v>15</v>
       </c>
       <c r="D1" s="1" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="n">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="F1" s="1" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="H1" s="1" t="n">
         <v>36</v>
       </c>
       <c r="I1" s="1" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -4793,22 +4793,22 @@
         <v>0.9647147743635599</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7965104575324449</v>
+        <v>0.9694456130488567</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8867373991806938</v>
+        <v>0.9900777641223389</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8659503811327621</v>
+        <v>0.9145461311393663</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7839818249638393</v>
+        <v>0.5681088836017403</v>
       </c>
       <c r="H2" t="n">
         <v>0.3874617546197744</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5681088836017403</v>
+        <v>0.8659503811327621</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -4822,138 +4822,138 @@
         <v>0.9999999999999991</v>
       </c>
       <c r="D3" t="n">
-        <v>0.836896858354961</v>
+        <v>0.9929205452729424</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8648645937752387</v>
+        <v>0.9754018054026382</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9632363915993691</v>
+        <v>0.8333681331439882</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6854042142631881</v>
+        <v>0.6590993355898472</v>
       </c>
       <c r="H3" t="n">
         <v>0.2958259168869475</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6590993355898472</v>
+        <v>0.9632363915993691</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="B4" t="n">
-        <v>0.7965104575324449</v>
+        <v>0.9694456130488567</v>
       </c>
       <c r="C4" t="n">
-        <v>0.836896858354961</v>
+        <v>0.9929205452729424</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9441688404178278</v>
+        <v>0.9869267642321951</v>
       </c>
       <c r="F4" t="n">
-        <v>0.811571500779141</v>
+        <v>0.8726308465047952</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7387956244797022</v>
+        <v>0.6953324451563264</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4374209220540851</v>
+        <v>0.3518350880319001</v>
       </c>
       <c r="I4" t="n">
-        <v>0.87969479077599</v>
+        <v>0.9526306681297814</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8867373991806938</v>
+        <v>0.9900777641223389</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8648645937752387</v>
+        <v>0.9754018054026382</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9441688404178278</v>
+        <v>0.9869267642321951</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.9999999999999987</v>
       </c>
       <c r="F5" t="n">
-        <v>0.778826355784451</v>
+        <v>0.9284088631256806</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8948725444333477</v>
+        <v>0.6404660913421167</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5845828640396185</v>
+        <v>0.4183480179348009</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7035394533202185</v>
+        <v>0.8946827082821999</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8659503811327621</v>
+        <v>0.9145461311393663</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9632363915993691</v>
+        <v>0.8333681331439882</v>
       </c>
       <c r="D6" t="n">
-        <v>0.811571500779141</v>
+        <v>0.8726308465047952</v>
       </c>
       <c r="E6" t="n">
-        <v>0.778826355784451</v>
+        <v>0.9284088631256806</v>
       </c>
       <c r="F6" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999986</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5611891528086586</v>
+        <v>0.5366263770689889</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2129359758219215</v>
+        <v>0.6731407481616736</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7098623230043076</v>
+        <v>0.7090385504210664</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B7" t="n">
-        <v>0.7839818249638393</v>
+        <v>0.5681088836017403</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6854042142631881</v>
+        <v>0.6590993355898472</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7387956244797022</v>
+        <v>0.6953324451563264</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8948725444333477</v>
+        <v>0.6404660913421167</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5611891528086586</v>
+        <v>0.5366263770689889</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999977</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8335477810461153</v>
+        <v>0.2331930244846713</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4623502962374352</v>
+        <v>0.7098623230043076</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -4967,51 +4967,51 @@
         <v>0.2958259168869475</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4374209220540851</v>
+        <v>0.3518350880319001</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5845828640396185</v>
+        <v>0.4183480179348009</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2129359758219215</v>
+        <v>0.6731407481616736</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8335477810461153</v>
+        <v>0.2331930244846713</v>
       </c>
       <c r="H8" t="n">
         <v>0.999999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2331930244846713</v>
+        <v>0.2129359758219215</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5681088836017403</v>
+        <v>0.8659503811327621</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6590993355898472</v>
+        <v>0.9632363915993691</v>
       </c>
       <c r="D9" t="n">
-        <v>0.87969479077599</v>
+        <v>0.9526306681297814</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7035394533202185</v>
+        <v>0.8946827082821999</v>
       </c>
       <c r="F9" t="n">
+        <v>0.7090385504210664</v>
+      </c>
+      <c r="G9" t="n">
         <v>0.7098623230043076</v>
       </c>
-      <c r="G9" t="n">
-        <v>0.4623502962374352</v>
-      </c>
       <c r="H9" t="n">
-        <v>0.2331930244846713</v>
+        <v>0.2129359758219215</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9999999999999977</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -5041,19 +5041,19 @@
         <v>15</v>
       </c>
       <c r="D1" s="1" t="n">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E1" s="1" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="n">
         <v>36</v>
       </c>
       <c r="H1" s="1" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -5067,19 +5067,19 @@
         <v>0.9647147743635599</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8734043535373898</v>
+        <v>0.9326730433629985</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9188561297474037</v>
+        <v>0.9497979102505977</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8659503811327621</v>
+        <v>0.5681088836017403</v>
       </c>
       <c r="G2" t="n">
         <v>0.3874617546197744</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5681088836017403</v>
+        <v>0.8659503811327621</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5093,94 +5093,94 @@
         <v>0.9999999999999991</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8904263996679866</v>
+        <v>0.9578570612217127</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9331053480012905</v>
+        <v>0.9715412042515472</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9632363915993691</v>
+        <v>0.6590993355898472</v>
       </c>
       <c r="G3" t="n">
         <v>0.2958259168869475</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6590993355898472</v>
+        <v>0.9632363915993691</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="n">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8734043535373898</v>
+        <v>0.9326730433629985</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8904263996679866</v>
+        <v>0.9578570612217127</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999999999999988</v>
+        <v>0.9999999999999989</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9759172062481746</v>
+        <v>0.991764545590856</v>
       </c>
       <c r="F4" t="n">
-        <v>0.831240887742133</v>
+        <v>0.7554253246806875</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4156359702672996</v>
+        <v>0.3720200695409888</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7794713471542509</v>
+        <v>0.9075706458869632</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9188561297474037</v>
+        <v>0.9497979102505977</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9331053480012905</v>
+        <v>0.9715412042515472</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9759172062481746</v>
+        <v>0.991764545590856</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8716833685607682</v>
+        <v>0.7299816626270786</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4445959664112384</v>
+        <v>0.3929671090329547</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7486697262388146</v>
+        <v>0.9180232507151763</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8659503811327621</v>
+        <v>0.5681088836017403</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9632363915993691</v>
+        <v>0.6590993355898472</v>
       </c>
       <c r="D6" t="n">
-        <v>0.831240887742133</v>
+        <v>0.7554253246806875</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8716833685607682</v>
+        <v>0.7299816626270786</v>
       </c>
       <c r="F6" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999977</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2129359758219215</v>
+        <v>0.2331930244846713</v>
       </c>
       <c r="H6" t="n">
         <v>0.7098623230043076</v>
@@ -5197,45 +5197,45 @@
         <v>0.2958259168869475</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4156359702672996</v>
+        <v>0.3720200695409888</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4445959664112384</v>
+        <v>0.3929671090329547</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2129359758219215</v>
+        <v>0.2331930244846713</v>
       </c>
       <c r="G7" t="n">
         <v>0.999999999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2331930244846713</v>
+        <v>0.2129359758219215</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5681088836017403</v>
+        <v>0.8659503811327621</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6590993355898472</v>
+        <v>0.9632363915993691</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7794713471542509</v>
+        <v>0.9075706458869632</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7486697262388146</v>
+        <v>0.9180232507151763</v>
       </c>
       <c r="F8" t="n">
         <v>0.7098623230043076</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2331930244846713</v>
+        <v>0.2129359758219215</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9999999999999977</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
   </sheetData>
